--- a/excel lab questions/Set1.xlsx
+++ b/excel lab questions/Set1.xlsx
@@ -33,19 +33,19 @@
     <t>D</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Verdict</t>
   </si>
   <si>
-    <t>Question 1: Calculate total marks of each student</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Question 2: If a student get 50% or above mark give him a verdict "Improved" otherwise "Not improved"</t>
+    <t>Question 1: Calculate average marks of each student of 3 questions</t>
   </si>
   <si>
-    <t>Question 3: Filter the improved Students List.</t>
+    <t>Question 2: If a student get 30% or below average mark give him a verdict "Not improved" otherwise "Improved"</t>
+  </si>
+  <si>
+    <t>Question 3: Filter the Not improved Students List.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:Q12"/>
+      <selection activeCell="I17" sqref="I17:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,6 +632,17 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="I10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1">
@@ -651,9 +662,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="I11" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1176,8 +1185,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I17:Q19"/>
-    <mergeCell ref="I11:Q12"/>
     <mergeCell ref="I13:Q16"/>
+    <mergeCell ref="I10:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
